--- a/data/trans_bre/P18_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>-22,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-16,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>-20,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>134,41%</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>-24,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,03%</t>
+          <t>-18,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-24,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 21,38</t>
+          <t>-36,56; -5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 16,71</t>
+          <t>-31,82; 0,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 6,79</t>
+          <t>-14,21; 47,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 18,74</t>
+          <t>-40,73; -2,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,92; 431,89</t>
+          <t>-17,08; 51,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 205,11</t>
+          <t>-39,29; -7,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 34,35</t>
+          <t>-34,26; 0,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 208,26</t>
+          <t>-16,39; 120,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-45,41; -2,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-20,98; 205,41</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>-13,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,86</t>
+          <t>-14,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>-15,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>-11,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-17,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,39%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 16,91</t>
+          <t>-21,67; -4,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 12,11</t>
+          <t>-16,42; -0,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 14,46</t>
+          <t>-18,99; 3,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 23,86</t>
+          <t>-23,76; -4,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 129,84</t>
+          <t>-13,96; 11,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 109,52</t>
+          <t>-24,47; -5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 88,28</t>
+          <t>-18,46; -0,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,24; 193,86</t>
+          <t>-22,46; 5,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-27,72; -6,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 20,07</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>-14,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>-9,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>-7,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-19,29%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 17,04</t>
+          <t>-17,43; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 12,01</t>
+          <t>-7,28; 10,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 14,99</t>
+          <t>-16,03; 6,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 15,97</t>
+          <t>-13,0; 8,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 125,85</t>
+          <t>-27,03; -3,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 117,98</t>
+          <t>-20,46; 4,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 103,2</t>
+          <t>-8,32; 13,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 81,5</t>
+          <t>-18,63; 9,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; 12,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-32,89; -5,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 14,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 108,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 78,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 52,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 104,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-12,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-11,25</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-14,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-18,83; -6,24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 0,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,72; 4,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-18,57; -4,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-13,12; 8,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-21,16; -7,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,23; 0,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 6,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; -5,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 14,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-22,17</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-16,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-20,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,61</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-24,13%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-18,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-24,51%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>26,02%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-22.17010043180881</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-12.32268000371509</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.38657355928984</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-21.28672923742817</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>15.37503885205975</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2413136736477811</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1428798016294016</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1559746296931282</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.253594195139017</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2790299192436351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-36,56; -5,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-31,82; 0,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,21; 47,28</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-40,73; -2,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-17,08; 51,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-39,29; -7,95</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-34,26; 0,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,39; 120,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-45,41; -2,16</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-20,98; 205,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-36.55627550390025</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-28.38903575254295</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.52001708029787</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-41.85857714342789</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-16.62048473036318</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3928656967154885</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3126130408637056</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1485251016008027</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.471605797699065</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2103953877307948</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.931387553152706</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.169788623284713</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>42.00920005428187</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-2.512718627998955</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>53.54094898083481</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.07947705222346002</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.08347454592626208</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9826189926278813</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.04089227275492062</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.272198234476718</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-13,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-14,71</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-15,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-9,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-11,46%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-17,85%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-5,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,67; -4,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,42; -0,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,99; 3,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,76; -4,43</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-13,96; 11,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; -5,25</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-18,46; -0,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,46; 5,11</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-27,72; -6,03</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-17,98; 20,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-13.05649647460005</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.518361194767397</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-11.20461534175375</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-15.28036868694036</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-2.592774743409032</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1513948880030836</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.08878271345004408</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1385446504667909</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.183853977711195</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.03643529108824026</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,9</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-7,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-3,73%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-19,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.6688345813343</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.64338369828068</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-21.57261318076856</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-24.36095640133973</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-12.93423306161149</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2447240685212798</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1796890002613979</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2539413778255145</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2783914457294537</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1698519223606153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,43; 3,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 10,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,03; 6,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,0; 8,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-27,03; -3,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-20,46; 4,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; 13,33</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,63; 9,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; 12,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-32,89; -5,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-4.345384542497574</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9779526426428782</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5161857358999095</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-5.209526866276081</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.1201506106697</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.05253661417018642</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.01261933591514102</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.006614859358630358</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.06449045765655231</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2133053004490531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.834736694829836</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.875049736148516</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.162996906251748</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.783419099774918</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-14.74605061081299</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.09531932483398986</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.0360313095890603</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05366936216376818</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.01100031829100448</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1918266262822059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.42651645031938</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.562797886556725</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.41807779204361</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.33267798802103</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-26.54241705570175</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2046459557195947</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.07509600775942622</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1722334569772534</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1489073928566544</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3296093438707439</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.679411234113735</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.96780685510339</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.153319283489811</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.69314422209272</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-3.485208438164246</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.04217980058432719</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2096457857551562</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1370686709064741</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.161610250039921</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.05264090642102834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-12,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,89</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,2</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,25</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,53</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-14,37%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,94%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-14,2%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-6,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; -6,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 0,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,72; 4,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-18,57; -4,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,12; 8,77</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; -7,45</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 0,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-15,45; 6,04</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-22,33; -5,77</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-17,21; 14,44</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-12.28088868392749</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.057702154806487</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.582226111753375</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-11.04606360107417</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.79510971797703</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1436698638142083</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.04887718376059735</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07176862633841796</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1396408824636228</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.05389055758308682</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-18.83497805363565</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.1633336072946</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.20327628806042</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-18.30950602999235</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-12.58647310197822</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2116359133173807</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.11956088154747</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1616528480196437</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2213320306454097</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1643331837652195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-6.236949503810966</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.06509808730262</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.341925110786147</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-3.927335031184055</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>9.670603690086892</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.07452635744448226</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.02593262331254431</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.04454663567281693</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.05296071646112575</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1606181997898019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
